--- a/random_method/solutions/solution_40_homogeneous_evolutionary.xlsx
+++ b/random_method/solutions/solution_40_homogeneous_evolutionary.xlsx
@@ -460,11 +460,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Z2</t>
+          <t>Z1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>504.6094929181535</v>
+        <v>504.6388420369769</v>
       </c>
     </row>
   </sheetData>
@@ -530,7 +530,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S031</t>
+          <t>S011</t>
         </is>
       </c>
     </row>
@@ -542,7 +542,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S011</t>
+          <t>S002</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S002</t>
+          <t>S031</t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>S004</t>
+          <t>S033</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>S033</t>
+          <t>S024</t>
         </is>
       </c>
     </row>
@@ -662,7 +662,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>S024</t>
+          <t>S004</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>S026</t>
+          <t>S006</t>
         </is>
       </c>
     </row>
@@ -758,7 +758,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>S027</t>
+          <t>S026</t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>S036</t>
+          <t>S016</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>S006</t>
+          <t>S036</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>S016</t>
+          <t>S027</t>
         </is>
       </c>
     </row>
@@ -818,7 +818,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>S037</t>
+          <t>S028</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>S028</t>
+          <t>S037</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>S008</t>
+          <t>S018</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>S018</t>
+          <t>S008</t>
         </is>
       </c>
     </row>
@@ -914,7 +914,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>S019</t>
+          <t>S039</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>S039</t>
+          <t>S019</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>S020</t>
+          <t>S040</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>S040</t>
+          <t>S020</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>504.5755270840091</v>
+        <v>504.6388420369769</v>
       </c>
     </row>
     <row r="3">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>504.6094929181535</v>
+        <v>504.5936641799115</v>
       </c>
     </row>
   </sheetData>
